--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efna1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -534,60 +537,60 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H2">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I2">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J2">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01424366666666667</v>
+        <v>0.02440666666666666</v>
       </c>
       <c r="N2">
-        <v>0.042731</v>
+        <v>0.07321999999999999</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9884709884709885</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9884709884709886</v>
       </c>
       <c r="Q2">
-        <v>0.3361823726762221</v>
+        <v>0.7369377000999999</v>
       </c>
       <c r="R2">
-        <v>3.025641354085999</v>
+        <v>6.6324393009</v>
       </c>
       <c r="S2">
-        <v>0.8824726436021215</v>
+        <v>0.8914447132826308</v>
       </c>
       <c r="T2">
-        <v>0.8824726436021214</v>
+        <v>0.8914447132826308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,57 +599,57 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.633202</v>
+        <v>30.194115</v>
       </c>
       <c r="H3">
-        <v>7.899606</v>
+        <v>90.582345</v>
       </c>
       <c r="I3">
-        <v>0.09845375648791208</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J3">
-        <v>0.09845375648791205</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01424366666666667</v>
+        <v>0.0002846666666666667</v>
       </c>
       <c r="N3">
-        <v>0.042731</v>
+        <v>0.000854</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="Q3">
-        <v>0.037506451554</v>
+        <v>0.00859525807</v>
       </c>
       <c r="R3">
-        <v>0.337558063986</v>
+        <v>0.07735732263</v>
       </c>
       <c r="S3">
-        <v>0.09845375648791208</v>
+        <v>0.01039734751629837</v>
       </c>
       <c r="T3">
-        <v>0.09845375648791205</v>
+        <v>0.01039734751629837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,46 +661,356 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5101343333333334</v>
+        <v>2.633202</v>
       </c>
       <c r="H4">
-        <v>1.530403</v>
+        <v>7.899606</v>
       </c>
       <c r="I4">
-        <v>0.01907359990996641</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J4">
-        <v>0.0190735999099664</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01424366666666667</v>
+        <v>0.02440666666666666</v>
       </c>
       <c r="N4">
-        <v>0.042731</v>
+        <v>0.07321999999999999</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9884709884709885</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9884709884709886</v>
       </c>
       <c r="Q4">
-        <v>0.007266183399222223</v>
+        <v>0.06426768348</v>
       </c>
       <c r="R4">
-        <v>0.065395650593</v>
+        <v>0.5784091513199999</v>
       </c>
       <c r="S4">
-        <v>0.01907359990996641</v>
+        <v>0.0777421031186127</v>
       </c>
       <c r="T4">
-        <v>0.0190735999099664</v>
+        <v>0.07774210311861267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.633202</v>
+      </c>
+      <c r="H5">
+        <v>7.899606</v>
+      </c>
+      <c r="I5">
+        <v>0.07864884657754871</v>
+      </c>
+      <c r="J5">
+        <v>0.07864884657754868</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.000854</v>
+      </c>
+      <c r="O5">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P5">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q5">
+        <v>0.0007495848360000001</v>
+      </c>
+      <c r="R5">
+        <v>0.006746263524000001</v>
+      </c>
+      <c r="S5">
+        <v>0.0009067434589360182</v>
+      </c>
+      <c r="T5">
+        <v>0.0009067434589360179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5479553333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.643866</v>
+      </c>
+      <c r="I6">
+        <v>0.01636640673320273</v>
+      </c>
+      <c r="J6">
+        <v>0.01636640673320272</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.02440666666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.07321999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.9884709884709885</v>
+      </c>
+      <c r="P6">
+        <v>0.9884709884709886</v>
+      </c>
+      <c r="Q6">
+        <v>0.01337376316888889</v>
+      </c>
+      <c r="R6">
+        <v>0.12036386852</v>
+      </c>
+      <c r="S6">
+        <v>0.01617771824128714</v>
+      </c>
+      <c r="T6">
+        <v>0.01617771824128714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5479553333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.643866</v>
+      </c>
+      <c r="I7">
+        <v>0.01636640673320273</v>
+      </c>
+      <c r="J7">
+        <v>0.01636640673320272</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.000854</v>
+      </c>
+      <c r="O7">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P7">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q7">
+        <v>0.0001559846182222222</v>
+      </c>
+      <c r="R7">
+        <v>0.001403861564</v>
+      </c>
+      <c r="S7">
+        <v>0.0001886884919155862</v>
+      </c>
+      <c r="T7">
+        <v>0.0001886884919155862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.315656</v>
+      </c>
+      <c r="I8">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J8">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.02440666666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.07321999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.9884709884709885</v>
+      </c>
+      <c r="P8">
+        <v>0.9884709884709886</v>
+      </c>
+      <c r="Q8">
+        <v>0.002568036924444444</v>
+      </c>
+      <c r="R8">
+        <v>0.02311233232</v>
+      </c>
+      <c r="S8">
+        <v>0.003106453828457876</v>
+      </c>
+      <c r="T8">
+        <v>0.003106453828457875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.315656</v>
+      </c>
+      <c r="I9">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J9">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.000854</v>
+      </c>
+      <c r="O9">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P9">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q9">
+        <v>2.995224711111112E-05</v>
+      </c>
+      <c r="R9">
+        <v>0.000269570224</v>
+      </c>
+      <c r="S9">
+        <v>3.623206186155458E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.623206186155457E-05</v>
       </c>
     </row>
   </sheetData>
